--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeworks\DIPLOMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeworks\DIPLOMA\fmh-android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF6559C-28DC-4356-8089-7845EF92B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF52B37B-0AD6-415E-BA04-9FD6D213BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="371">
   <si>
     <t>ID</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>Новость сохраняется и отображается в разделе редактирования новостей, в разделе новостей новость появляется только после наступления даты и времени публикации</t>
-  </si>
-  <si>
-    <t>Невозможно (из-за привязки к конкретному времени наступления события). Только ручное тестирование</t>
   </si>
   <si>
     <t>2. Заполнить все текстовые поля валидными данными</t>
@@ -1443,27 +1440,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,23 +1477,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1808,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:AB955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254:B255"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110:H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1871,16 +1868,16 @@
       <c r="AB1" s="8"/>
     </row>
     <row r="2" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1903,28 +1900,28 @@
       <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="8"/>
@@ -1949,16 +1946,16 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1981,16 +1978,16 @@
       <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2013,16 +2010,16 @@
       <c r="AB5" s="8"/>
     </row>
     <row r="6" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -2045,28 +2042,28 @@
       <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="8"/>
@@ -2091,16 +2088,16 @@
       <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -2123,16 +2120,16 @@
       <c r="AB8" s="8"/>
     </row>
     <row r="9" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2155,16 +2152,16 @@
       <c r="AB9" s="8"/>
     </row>
     <row r="10" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -2187,28 +2184,28 @@
       <c r="AB10" s="8"/>
     </row>
     <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="8"/>
@@ -2233,16 +2230,16 @@
       <c r="AB11" s="8"/>
     </row>
     <row r="12" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2265,16 +2262,16 @@
       <c r="AB12" s="8"/>
     </row>
     <row r="13" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -2297,16 +2294,16 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2329,28 +2326,28 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="31">
         <v>4</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="8"/>
@@ -2375,16 +2372,16 @@
       <c r="AB15" s="8"/>
     </row>
     <row r="16" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2407,16 +2404,16 @@
       <c r="AB16" s="8"/>
     </row>
     <row r="17" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2439,16 +2436,16 @@
       <c r="AB17" s="8"/>
     </row>
     <row r="18" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -2471,28 +2468,28 @@
       <c r="AB18" s="8"/>
     </row>
     <row r="19" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="31">
         <v>5</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="8"/>
@@ -2517,16 +2514,16 @@
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2549,16 +2546,16 @@
       <c r="AB20" s="8"/>
     </row>
     <row r="21" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2581,16 +2578,16 @@
       <c r="AB21" s="8"/>
     </row>
     <row r="22" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2613,28 +2610,28 @@
       <c r="AB22" s="8"/>
     </row>
     <row r="23" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="31">
         <v>6</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="8"/>
@@ -2659,16 +2656,16 @@
       <c r="AB23" s="8"/>
     </row>
     <row r="24" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2691,16 +2688,16 @@
       <c r="AB24" s="8"/>
     </row>
     <row r="25" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2723,16 +2720,16 @@
       <c r="AB25" s="8"/>
     </row>
     <row r="26" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2755,28 +2752,28 @@
       <c r="AB26" s="8"/>
     </row>
     <row r="27" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="31">
         <v>7</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="8"/>
@@ -2801,16 +2798,16 @@
       <c r="AB27" s="8"/>
     </row>
     <row r="28" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2833,16 +2830,16 @@
       <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2865,16 +2862,16 @@
       <c r="AB29" s="8"/>
     </row>
     <row r="30" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2989,16 +2986,16 @@
       <c r="AB32" s="8"/>
     </row>
     <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -3067,19 +3064,19 @@
       <c r="AB34" s="8"/>
     </row>
     <row r="35" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="31">
         <v>9</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="43" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="11" t="s">
@@ -3088,7 +3085,7 @@
       <c r="G35" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="8"/>
@@ -3113,16 +3110,16 @@
       <c r="AB35" s="8"/>
     </row>
     <row r="36" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="34"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -3237,16 +3234,16 @@
       <c r="AB38" s="8"/>
     </row>
     <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -3361,28 +3358,28 @@
       <c r="AB41" s="8"/>
     </row>
     <row r="42" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="37">
         <v>14</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="8"/>
@@ -3407,16 +3404,16 @@
       <c r="AB42" s="8"/>
     </row>
     <row r="43" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -3439,16 +3436,16 @@
       <c r="AB43" s="8"/>
     </row>
     <row r="44" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3561,28 +3558,28 @@
       <c r="AB46" s="8"/>
     </row>
     <row r="47" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="A47" s="31">
         <v>16</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="8"/>
@@ -3607,16 +3604,16 @@
       <c r="AB47" s="8"/>
     </row>
     <row r="48" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -3639,16 +3636,16 @@
       <c r="AB48" s="8"/>
     </row>
     <row r="49" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -3671,16 +3668,16 @@
       <c r="AB49" s="8"/>
     </row>
     <row r="50" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3703,28 +3700,28 @@
       <c r="AB50" s="8"/>
     </row>
     <row r="51" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
+      <c r="A51" s="31">
         <v>17</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="8"/>
@@ -3749,16 +3746,16 @@
       <c r="AB51" s="8"/>
     </row>
     <row r="52" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -3781,16 +3778,16 @@
       <c r="AB52" s="8"/>
     </row>
     <row r="53" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3813,16 +3810,16 @@
       <c r="AB53" s="8"/>
     </row>
     <row r="54" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3845,16 +3842,16 @@
       <c r="AB54" s="8"/>
     </row>
     <row r="55" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3877,28 +3874,28 @@
       <c r="AB55" s="8"/>
     </row>
     <row r="56" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+      <c r="A56" s="31">
         <v>18</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="8"/>
@@ -3923,16 +3920,16 @@
       <c r="AB56" s="8"/>
     </row>
     <row r="57" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3955,16 +3952,16 @@
       <c r="AB57" s="8"/>
     </row>
     <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3987,16 +3984,16 @@
       <c r="AB58" s="8"/>
     </row>
     <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -4019,16 +4016,16 @@
       <c r="AB59" s="8"/>
     </row>
     <row r="60" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -4051,28 +4048,28 @@
       <c r="AB60" s="8"/>
     </row>
     <row r="61" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="38">
+      <c r="A61" s="37">
         <v>19</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="8"/>
@@ -4097,16 +4094,16 @@
       <c r="AB61" s="8"/>
     </row>
     <row r="62" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -4129,16 +4126,16 @@
       <c r="AB62" s="8"/>
     </row>
     <row r="63" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
       <c r="F63" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -4161,16 +4158,16 @@
       <c r="AB63" s="8"/>
     </row>
     <row r="64" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="26"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -4193,28 +4190,28 @@
       <c r="AB64" s="8"/>
     </row>
     <row r="65" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="A65" s="31">
         <v>20</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I65" s="8"/>
@@ -4239,16 +4236,16 @@
       <c r="AB65" s="8"/>
     </row>
     <row r="66" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -4271,16 +4268,16 @@
       <c r="AB66" s="8"/>
     </row>
     <row r="67" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -4303,16 +4300,16 @@
       <c r="AB67" s="8"/>
     </row>
     <row r="68" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="32"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -4471,28 +4468,28 @@
       <c r="AB71" s="8"/>
     </row>
     <row r="72" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
+      <c r="A72" s="31">
         <v>23</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I72" s="8"/>
@@ -4517,16 +4514,16 @@
       <c r="AB72" s="8"/>
     </row>
     <row r="73" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
       <c r="F73" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -4549,16 +4546,16 @@
       <c r="AB73" s="8"/>
     </row>
     <row r="74" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
       <c r="F74" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -4581,16 +4578,16 @@
       <c r="AB74" s="8"/>
     </row>
     <row r="75" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -4613,28 +4610,28 @@
       <c r="AB75" s="8"/>
     </row>
     <row r="76" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+      <c r="A76" s="31">
         <v>24</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I76" s="8"/>
@@ -4659,16 +4656,16 @@
       <c r="AB76" s="8"/>
     </row>
     <row r="77" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
       <c r="F77" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -4691,16 +4688,16 @@
       <c r="AB77" s="8"/>
     </row>
     <row r="78" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
       <c r="F78" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -4723,16 +4720,16 @@
       <c r="AB78" s="8"/>
     </row>
     <row r="79" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -4755,28 +4752,28 @@
       <c r="AB79" s="8"/>
     </row>
     <row r="80" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="38">
+      <c r="A80" s="37">
         <v>25</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C80" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="39" t="s">
         <v>118</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H80" s="29" t="s">
+      <c r="H80" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I80" s="8"/>
@@ -4801,16 +4798,16 @@
       <c r="AB80" s="8"/>
     </row>
     <row r="81" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
       <c r="F81" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -4833,16 +4830,16 @@
       <c r="AB81" s="8"/>
     </row>
     <row r="82" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
       <c r="F82" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -4865,16 +4862,16 @@
       <c r="AB82" s="8"/>
     </row>
     <row r="83" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
       <c r="F83" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4897,28 +4894,28 @@
       <c r="AB83" s="8"/>
     </row>
     <row r="84" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
+      <c r="A84" s="31">
         <v>26</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I84" s="8"/>
@@ -4943,16 +4940,16 @@
       <c r="AB84" s="8"/>
     </row>
     <row r="85" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4975,16 +4972,16 @@
       <c r="AB85" s="8"/>
     </row>
     <row r="86" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -5007,16 +5004,16 @@
       <c r="AB86" s="8"/>
     </row>
     <row r="87" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -5039,16 +5036,16 @@
       <c r="AB87" s="8"/>
     </row>
     <row r="88" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -5071,16 +5068,16 @@
       <c r="AB88" s="8"/>
     </row>
     <row r="89" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -5103,28 +5100,28 @@
       <c r="AB89" s="8"/>
     </row>
     <row r="90" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A90" s="38">
+      <c r="A90" s="37">
         <v>27</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D90" s="37" t="s">
+      <c r="D90" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="39" t="s">
         <v>118</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I90" s="8"/>
@@ -5149,16 +5146,16 @@
       <c r="AB90" s="8"/>
     </row>
     <row r="91" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
       <c r="F91" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -5181,16 +5178,16 @@
       <c r="AB91" s="8"/>
     </row>
     <row r="92" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
       <c r="F92" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5213,28 +5210,28 @@
       <c r="AB92" s="8"/>
     </row>
     <row r="93" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
+      <c r="A93" s="31">
         <v>28</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I93" s="8"/>
@@ -5259,16 +5256,16 @@
       <c r="AB93" s="8"/>
     </row>
     <row r="94" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
       <c r="F94" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -5291,16 +5288,16 @@
       <c r="AB94" s="8"/>
     </row>
     <row r="95" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
       <c r="F95" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -5323,16 +5320,16 @@
       <c r="AB95" s="8"/>
     </row>
     <row r="96" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
       <c r="F96" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -5355,28 +5352,28 @@
       <c r="AB96" s="8"/>
     </row>
     <row r="97" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
+      <c r="A97" s="31">
         <v>29</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I97" s="8"/>
@@ -5401,16 +5398,16 @@
       <c r="AB97" s="8"/>
     </row>
     <row r="98" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
       <c r="F98" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5433,16 +5430,16 @@
       <c r="AB98" s="8"/>
     </row>
     <row r="99" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5465,16 +5462,16 @@
       <c r="AB99" s="8"/>
     </row>
     <row r="100" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
       <c r="F100" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -5497,29 +5494,29 @@
       <c r="AB100" s="8"/>
     </row>
     <row r="101" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
+      <c r="A101" s="31">
         <v>30</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H101" s="29" t="s">
-        <v>161</v>
+      <c r="H101" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -5543,16 +5540,16 @@
       <c r="AB101" s="8"/>
     </row>
     <row r="102" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
       <c r="F102" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
+        <v>161</v>
+      </c>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -5575,16 +5572,16 @@
       <c r="AB102" s="8"/>
     </row>
     <row r="103" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
       <c r="F103" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
+        <v>162</v>
+      </c>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -5607,16 +5604,16 @@
       <c r="AB103" s="8"/>
     </row>
     <row r="104" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
       <c r="F104" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
+        <v>163</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -5639,16 +5636,16 @@
       <c r="AB104" s="8"/>
     </row>
     <row r="105" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
       <c r="F105" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -5671,29 +5668,29 @@
       <c r="AB105" s="8"/>
     </row>
     <row r="106" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A106" s="25">
+      <c r="A106" s="31">
         <v>31</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G106" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H106" s="29" t="s">
-        <v>37</v>
+      <c r="G106" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -5717,16 +5714,16 @@
       <c r="AB106" s="8"/>
     </row>
     <row r="107" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
       <c r="F107" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -5749,16 +5746,16 @@
       <c r="AB107" s="8"/>
     </row>
     <row r="108" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
       <c r="F108" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -5781,16 +5778,16 @@
       <c r="AB108" s="8"/>
     </row>
     <row r="109" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -5813,28 +5810,28 @@
       <c r="AB109" s="8"/>
     </row>
     <row r="110" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
+      <c r="A110" s="31">
         <v>32</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G110" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H110" s="29" t="s">
+      <c r="G110" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I110" s="8"/>
@@ -5859,16 +5856,16 @@
       <c r="AB110" s="8"/>
     </row>
     <row r="111" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
       <c r="F111" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
+        <v>161</v>
+      </c>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -5891,16 +5888,16 @@
       <c r="AB111" s="8"/>
     </row>
     <row r="112" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
       <c r="F112" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5923,16 +5920,16 @@
       <c r="AB112" s="8"/>
     </row>
     <row r="113" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
       <c r="F113" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
+        <v>173</v>
+      </c>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -5955,16 +5952,16 @@
       <c r="AB113" s="8"/>
     </row>
     <row r="114" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
       <c r="F114" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
+        <v>174</v>
+      </c>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -5987,16 +5984,16 @@
       <c r="AB114" s="8"/>
     </row>
     <row r="115" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
       <c r="F115" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -6019,28 +6016,28 @@
       <c r="AB115" s="8"/>
     </row>
     <row r="116" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A116" s="25">
+      <c r="A116" s="31">
         <v>33</v>
       </c>
       <c r="B116" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G116" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H116" s="29" t="s">
+      <c r="G116" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H116" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I116" s="8"/>
@@ -6065,16 +6062,16 @@
       <c r="AB116" s="8"/>
     </row>
     <row r="117" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
       <c r="F117" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
+        <v>161</v>
+      </c>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -6097,16 +6094,16 @@
       <c r="AB117" s="8"/>
     </row>
     <row r="118" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
       <c r="F118" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
+        <v>179</v>
+      </c>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -6129,28 +6126,28 @@
       <c r="AB118" s="8"/>
     </row>
     <row r="119" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A119" s="25">
+      <c r="A119" s="31">
         <v>34</v>
       </c>
       <c r="B119" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C119" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119" s="29" t="s">
+      <c r="D119" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E119" s="29" t="s">
+      <c r="E119" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G119" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="H119" s="29" t="s">
+      <c r="G119" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H119" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I119" s="8"/>
@@ -6175,16 +6172,16 @@
       <c r="AB119" s="8"/>
     </row>
     <row r="120" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
       <c r="F120" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
@@ -6207,16 +6204,16 @@
       <c r="AB120" s="8"/>
     </row>
     <row r="121" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
       <c r="F121" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
@@ -6239,28 +6236,28 @@
       <c r="AB121" s="8"/>
     </row>
     <row r="122" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A122" s="25">
+      <c r="A122" s="31">
         <v>35</v>
       </c>
       <c r="B122" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G122" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H122" s="29" t="s">
+      <c r="G122" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H122" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I122" s="8"/>
@@ -6285,16 +6282,16 @@
       <c r="AB122" s="8"/>
     </row>
     <row r="123" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
       <c r="F123" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
@@ -6317,16 +6314,16 @@
       <c r="AB123" s="8"/>
     </row>
     <row r="124" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
       <c r="F124" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
+        <v>183</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
@@ -6349,16 +6346,16 @@
       <c r="AB124" s="8"/>
     </row>
     <row r="125" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
       <c r="F125" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
+        <v>187</v>
+      </c>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
@@ -6385,10 +6382,10 @@
         <v>36</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>11</v>
@@ -6397,10 +6394,10 @@
         <v>118</v>
       </c>
       <c r="F126" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G126" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>15</v>
@@ -6427,28 +6424,28 @@
       <c r="AB126" s="8"/>
     </row>
     <row r="127" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25">
+      <c r="A127" s="31">
         <v>37</v>
       </c>
       <c r="B127" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="D127" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F127" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="11" t="s">
+      <c r="G127" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="G127" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="H127" s="29"/>
+      <c r="H127" s="30"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
@@ -6471,16 +6468,16 @@
       <c r="AB127" s="8"/>
     </row>
     <row r="128" spans="1:28" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
       <c r="F128" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
+        <v>195</v>
+      </c>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
@@ -6503,16 +6500,16 @@
       <c r="AB128" s="8"/>
     </row>
     <row r="129" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="32"/>
+      <c r="A129" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -6535,28 +6532,28 @@
       <c r="AB129" s="8"/>
     </row>
     <row r="130" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A130" s="25">
+      <c r="A130" s="31">
         <v>38</v>
       </c>
       <c r="B130" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="D130" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F130" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F130" s="11" t="s">
+      <c r="G130" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="G130" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="H130" s="29" t="s">
+      <c r="H130" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I130" s="8"/>
@@ -6581,16 +6578,16 @@
       <c r="AB130" s="8"/>
     </row>
     <row r="131" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
       <c r="F131" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
+        <v>201</v>
+      </c>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
@@ -6613,16 +6610,16 @@
       <c r="AB131" s="8"/>
     </row>
     <row r="132" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
       <c r="F132" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
+        <v>202</v>
+      </c>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
@@ -6645,28 +6642,28 @@
       <c r="AB132" s="8"/>
     </row>
     <row r="133" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A133" s="25">
+      <c r="A133" s="31">
         <v>39</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D133" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E133" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G133" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="H133" s="29" t="s">
+      <c r="G133" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H133" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I133" s="8"/>
@@ -6691,16 +6688,16 @@
       <c r="AB133" s="8"/>
     </row>
     <row r="134" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
       <c r="F134" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
+        <v>205</v>
+      </c>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
@@ -6723,16 +6720,16 @@
       <c r="AB134" s="8"/>
     </row>
     <row r="135" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
       <c r="F135" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -6755,28 +6752,28 @@
       <c r="AB135" s="8"/>
     </row>
     <row r="136" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A136" s="25">
+      <c r="A136" s="31">
         <v>40</v>
       </c>
       <c r="B136" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C136" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="29" t="s">
+      <c r="E136" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G136" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H136" s="29" t="s">
+      <c r="G136" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H136" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I136" s="8"/>
@@ -6801,16 +6798,16 @@
       <c r="AB136" s="8"/>
     </row>
     <row r="137" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
       <c r="F137" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
+        <v>209</v>
+      </c>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -6833,16 +6830,16 @@
       <c r="AB137" s="8"/>
     </row>
     <row r="138" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
       <c r="F138" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
+        <v>210</v>
+      </c>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -6865,16 +6862,16 @@
       <c r="AB138" s="8"/>
     </row>
     <row r="139" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
       <c r="F139" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
+        <v>211</v>
+      </c>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -6897,28 +6894,28 @@
       <c r="AB139" s="8"/>
     </row>
     <row r="140" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A140" s="25">
+      <c r="A140" s="31">
         <v>41</v>
       </c>
       <c r="B140" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C140" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D140" s="29" t="s">
+      <c r="D140" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E140" s="30" t="s">
         <v>118</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G140" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H140" s="29" t="s">
+      <c r="G140" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H140" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I140" s="8"/>
@@ -6943,16 +6940,16 @@
       <c r="AB140" s="8"/>
     </row>
     <row r="141" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
       <c r="F141" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
+        <v>215</v>
+      </c>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -6975,16 +6972,16 @@
       <c r="AB141" s="8"/>
     </row>
     <row r="142" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
       <c r="F142" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
+        <v>216</v>
+      </c>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
@@ -7007,16 +7004,16 @@
       <c r="AB142" s="8"/>
     </row>
     <row r="143" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="32"/>
+      <c r="A143" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="27"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
@@ -7043,10 +7040,10 @@
         <v>42</v>
       </c>
       <c r="B144" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>11</v>
@@ -7055,10 +7052,10 @@
         <v>44</v>
       </c>
       <c r="F144" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G144" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H144" s="13" t="s">
         <v>15</v>
@@ -7085,28 +7082,28 @@
       <c r="AB144" s="8"/>
     </row>
     <row r="145" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A145" s="25">
+      <c r="A145" s="31">
         <v>43</v>
       </c>
       <c r="B145" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="D145" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F145" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D145" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F145" s="11" t="s">
+      <c r="G145" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="G145" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H145" s="29"/>
+      <c r="H145" s="30"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
@@ -7129,16 +7126,16 @@
       <c r="AB145" s="8"/>
     </row>
     <row r="146" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
       <c r="F146" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
@@ -7161,16 +7158,16 @@
       <c r="AB146" s="8"/>
     </row>
     <row r="147" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
       <c r="F147" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
+        <v>216</v>
+      </c>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -7197,10 +7194,10 @@
         <v>44</v>
       </c>
       <c r="B148" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>11</v>
@@ -7209,10 +7206,10 @@
         <v>44</v>
       </c>
       <c r="F148" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G148" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="H148" s="13" t="s">
         <v>15</v>
@@ -7239,28 +7236,28 @@
       <c r="AB148" s="8"/>
     </row>
     <row r="149" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="25">
+      <c r="A149" s="31">
         <v>45</v>
       </c>
       <c r="B149" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C149" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="D149" s="42" t="s">
+      <c r="D149" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E149" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G149" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="H149" s="29" t="s">
+      <c r="G149" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H149" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I149" s="8"/>
@@ -7285,16 +7282,16 @@
       <c r="AB149" s="8"/>
     </row>
     <row r="150" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
+      <c r="A150" s="29"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
       <c r="F150" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
+        <v>233</v>
+      </c>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
@@ -7317,16 +7314,16 @@
       <c r="AB150" s="8"/>
     </row>
     <row r="151" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="32"/>
+      <c r="A151" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="27"/>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -7353,16 +7350,16 @@
         <v>46</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="D152" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>36</v>
@@ -7395,28 +7392,28 @@
       <c r="AB152" s="8"/>
     </row>
     <row r="153" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="25">
+      <c r="A153" s="31">
         <v>47</v>
       </c>
       <c r="B153" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C153" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D153" s="42" t="s">
+      <c r="D153" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="29" t="s">
-        <v>238</v>
+      <c r="E153" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G153" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H153" s="29" t="s">
+      <c r="G153" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H153" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I153" s="8"/>
@@ -7441,16 +7438,16 @@
       <c r="AB153" s="8"/>
     </row>
     <row r="154" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
       <c r="F154" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
+        <v>241</v>
+      </c>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
@@ -7473,16 +7470,16 @@
       <c r="AB154" s="8"/>
     </row>
     <row r="155" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
       <c r="F155" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
+        <v>242</v>
+      </c>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
@@ -7505,28 +7502,28 @@
       <c r="AB155" s="8"/>
     </row>
     <row r="156" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="25">
+      <c r="A156" s="31">
         <v>48</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D156" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D156" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E156" s="29" t="s">
-        <v>238</v>
+      <c r="E156" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="F156" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G156" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="H156" s="29" t="s">
+      <c r="G156" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H156" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I156" s="8"/>
@@ -7551,16 +7548,16 @@
       <c r="AB156" s="8"/>
     </row>
     <row r="157" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
       <c r="F157" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
+        <v>245</v>
+      </c>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -7583,16 +7580,16 @@
       <c r="AB157" s="8"/>
     </row>
     <row r="158" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
+      <c r="A158" s="29"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
       <c r="F158" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
+        <v>242</v>
+      </c>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -7615,28 +7612,28 @@
       <c r="AB158" s="8"/>
     </row>
     <row r="159" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="25">
+      <c r="A159" s="31">
         <v>49</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D159" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D159" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E159" s="29" t="s">
-        <v>238</v>
+      <c r="E159" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G159" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="H159" s="29" t="s">
+      <c r="G159" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H159" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I159" s="8"/>
@@ -7661,16 +7658,16 @@
       <c r="AB159" s="8"/>
     </row>
     <row r="160" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
       <c r="F160" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
+        <v>248</v>
+      </c>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
@@ -7693,16 +7690,16 @@
       <c r="AB160" s="8"/>
     </row>
     <row r="161" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
       <c r="F161" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
+        <v>242</v>
+      </c>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -7729,22 +7726,22 @@
         <v>50</v>
       </c>
       <c r="B162" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>251</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F162" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G162" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="H162" s="13" t="s">
         <v>15</v>
@@ -7771,16 +7768,16 @@
       <c r="AB162" s="8"/>
     </row>
     <row r="163" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="32"/>
+      <c r="A163" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="27"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -7803,28 +7800,28 @@
       <c r="AB163" s="8"/>
     </row>
     <row r="164" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A164" s="25">
+      <c r="A164" s="31">
         <v>51</v>
       </c>
       <c r="B164" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C164" s="29" t="s">
+      <c r="D164" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D164" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E164" s="29" t="s">
+      <c r="F164" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F164" s="11" t="s">
+      <c r="G164" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="G164" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H164" s="29" t="s">
+      <c r="H164" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I164" s="8"/>
@@ -7849,16 +7846,16 @@
       <c r="AB164" s="8"/>
     </row>
     <row r="165" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
       <c r="F165" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
+        <v>259</v>
+      </c>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
@@ -7881,16 +7878,16 @@
       <c r="AB165" s="8"/>
     </row>
     <row r="166" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
       <c r="F166" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
+        <v>260</v>
+      </c>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
@@ -7913,28 +7910,28 @@
       <c r="AB166" s="8"/>
     </row>
     <row r="167" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A167" s="25">
+      <c r="A167" s="31">
         <v>52</v>
       </c>
       <c r="B167" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C167" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C167" s="29" t="s">
+      <c r="D167" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F167" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D167" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="F167" s="11" t="s">
+      <c r="G167" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="G167" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="H167" s="29" t="s">
+      <c r="H167" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I167" s="8"/>
@@ -7959,16 +7956,16 @@
       <c r="AB167" s="8"/>
     </row>
     <row r="168" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
       <c r="F168" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26"/>
+        <v>265</v>
+      </c>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -7991,16 +7988,16 @@
       <c r="AB168" s="8"/>
     </row>
     <row r="169" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
+      <c r="A169" s="29"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
       <c r="F169" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
@@ -8023,28 +8020,28 @@
       <c r="AB169" s="8"/>
     </row>
     <row r="170" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A170" s="25">
+      <c r="A170" s="31">
         <v>53</v>
       </c>
       <c r="B170" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C170" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="D170" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G170" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D170" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G170" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H170" s="29" t="s">
+      <c r="H170" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I170" s="8"/>
@@ -8069,16 +8066,16 @@
       <c r="AB170" s="8"/>
     </row>
     <row r="171" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
+      <c r="A171" s="33"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
       <c r="F171" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
+        <v>269</v>
+      </c>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
@@ -8101,16 +8098,16 @@
       <c r="AB171" s="8"/>
     </row>
     <row r="172" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
       <c r="F172" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
+        <v>270</v>
+      </c>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
@@ -8133,28 +8130,28 @@
       <c r="AB172" s="8"/>
     </row>
     <row r="173" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A173" s="25">
+      <c r="A173" s="31">
         <v>54</v>
       </c>
       <c r="B173" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C173" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="D173" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G173" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="D173" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G173" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="H173" s="29" t="s">
+      <c r="H173" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I173" s="8"/>
@@ -8179,16 +8176,16 @@
       <c r="AB173" s="8"/>
     </row>
     <row r="174" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
       <c r="F174" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
+        <v>274</v>
+      </c>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
@@ -8211,16 +8208,16 @@
       <c r="AB174" s="8"/>
     </row>
     <row r="175" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
+      <c r="A175" s="29"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
       <c r="F175" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
+        <v>275</v>
+      </c>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
@@ -8243,16 +8240,16 @@
       <c r="AB175" s="8"/>
     </row>
     <row r="176" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31"/>
-      <c r="G176" s="31"/>
-      <c r="H176" s="32"/>
+      <c r="A176" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="27"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
@@ -8275,28 +8272,28 @@
       <c r="AB176" s="8"/>
     </row>
     <row r="177" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A177" s="25">
+      <c r="A177" s="31">
         <v>55</v>
       </c>
       <c r="B177" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C177" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="D177" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F177" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D177" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F177" s="11" t="s">
+      <c r="G177" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="G177" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="H177" s="29" t="s">
+      <c r="H177" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I177" s="8"/>
@@ -8321,16 +8318,16 @@
       <c r="AB177" s="8"/>
     </row>
     <row r="178" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
+      <c r="A178" s="33"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
       <c r="F178" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
@@ -8353,16 +8350,16 @@
       <c r="AB178" s="8"/>
     </row>
     <row r="179" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
+      <c r="A179" s="33"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
       <c r="F179" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G179" s="26"/>
-      <c r="H179" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
@@ -8385,16 +8382,16 @@
       <c r="AB179" s="8"/>
     </row>
     <row r="180" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
+      <c r="A180" s="29"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
       <c r="F180" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
+        <v>283</v>
+      </c>
+      <c r="G180" s="29"/>
+      <c r="H180" s="29"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
@@ -8417,28 +8414,28 @@
       <c r="AB180" s="8"/>
     </row>
     <row r="181" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A181" s="25">
+      <c r="A181" s="31">
         <v>56</v>
       </c>
       <c r="B181" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G181" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C181" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="H181" s="29" t="s">
+      <c r="H181" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I181" s="8"/>
@@ -8463,16 +8460,16 @@
       <c r="AB181" s="8"/>
     </row>
     <row r="182" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
+      <c r="A182" s="33"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
       <c r="F182" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G182" s="26"/>
-      <c r="H182" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -8495,16 +8492,16 @@
       <c r="AB182" s="8"/>
     </row>
     <row r="183" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
       <c r="F183" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="G183" s="33"/>
+      <c r="H183" s="33"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
@@ -8527,16 +8524,16 @@
       <c r="AB183" s="8"/>
     </row>
     <row r="184" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
+      <c r="A184" s="29"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
       <c r="F184" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
+        <v>286</v>
+      </c>
+      <c r="G184" s="29"/>
+      <c r="H184" s="29"/>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
@@ -8559,28 +8556,28 @@
       <c r="AB184" s="8"/>
     </row>
     <row r="185" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A185" s="25">
+      <c r="A185" s="31">
         <v>57</v>
       </c>
       <c r="B185" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C185" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C185" s="29" t="s">
+      <c r="D185" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F185" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D185" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F185" s="11" t="s">
+      <c r="G185" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="G185" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H185" s="29" t="s">
+      <c r="H185" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I185" s="8"/>
@@ -8605,16 +8602,16 @@
       <c r="AB185" s="8"/>
     </row>
     <row r="186" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="A186" s="33"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
       <c r="F186" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
@@ -8637,16 +8634,16 @@
       <c r="AB186" s="8"/>
     </row>
     <row r="187" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
+      <c r="A187" s="33"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
       <c r="F187" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G187" s="26"/>
-      <c r="H187" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
@@ -8669,16 +8666,16 @@
       <c r="AB187" s="8"/>
     </row>
     <row r="188" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
+      <c r="A188" s="33"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
       <c r="F188" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G188" s="26"/>
-      <c r="H188" s="26"/>
+        <v>291</v>
+      </c>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
@@ -8701,16 +8698,16 @@
       <c r="AB188" s="8"/>
     </row>
     <row r="189" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
       <c r="F189" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="G189" s="26"/>
-      <c r="H189" s="26"/>
+        <v>292</v>
+      </c>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
@@ -8733,16 +8730,16 @@
       <c r="AB189" s="8"/>
     </row>
     <row r="190" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
+      <c r="A190" s="29"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="29"/>
       <c r="F190" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="G190" s="29"/>
+      <c r="H190" s="29"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
@@ -8765,28 +8762,28 @@
       <c r="AB190" s="8"/>
     </row>
     <row r="191" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A191" s="25">
+      <c r="A191" s="31">
         <v>58</v>
       </c>
-      <c r="B191" s="43" t="s">
+      <c r="B191" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G191" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C191" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="D191" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G191" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="H191" s="29" t="s">
+      <c r="H191" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I191" s="8"/>
@@ -8811,16 +8808,16 @@
       <c r="AB191" s="8"/>
     </row>
     <row r="192" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
+      <c r="A192" s="33"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
       <c r="F192" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G192" s="26"/>
-      <c r="H192" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
@@ -8843,16 +8840,16 @@
       <c r="AB192" s="8"/>
     </row>
     <row r="193" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
+      <c r="A193" s="33"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
       <c r="F193" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G193" s="26"/>
-      <c r="H193" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
@@ -8875,16 +8872,16 @@
       <c r="AB193" s="8"/>
     </row>
     <row r="194" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
+      <c r="A194" s="33"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
       <c r="F194" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G194" s="26"/>
-      <c r="H194" s="26"/>
+        <v>295</v>
+      </c>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
@@ -8907,16 +8904,16 @@
       <c r="AB194" s="8"/>
     </row>
     <row r="195" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="A195" s="33"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
       <c r="F195" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="G195" s="26"/>
-      <c r="H195" s="26"/>
+        <v>292</v>
+      </c>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
@@ -8939,16 +8936,16 @@
       <c r="AB195" s="8"/>
     </row>
     <row r="196" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
+      <c r="A196" s="29"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
       <c r="F196" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="G196" s="29"/>
+      <c r="H196" s="29"/>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
@@ -8971,28 +8968,28 @@
       <c r="AB196" s="8"/>
     </row>
     <row r="197" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A197" s="25">
+      <c r="A197" s="31">
         <v>59</v>
       </c>
       <c r="B197" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C197" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C197" s="29" t="s">
+      <c r="D197" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="D197" s="29" t="s">
+      <c r="E197" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F197" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E197" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F197" s="11" t="s">
+      <c r="G197" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="G197" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="H197" s="29" t="s">
+      <c r="H197" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I197" s="8"/>
@@ -9017,16 +9014,16 @@
       <c r="AB197" s="8"/>
     </row>
     <row r="198" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
       <c r="F198" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G198" s="26"/>
-      <c r="H198" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
@@ -9049,16 +9046,16 @@
       <c r="AB198" s="8"/>
     </row>
     <row r="199" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
+      <c r="A199" s="29"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
       <c r="F199" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
+        <v>301</v>
+      </c>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
@@ -9081,28 +9078,28 @@
       <c r="AB199" s="8"/>
     </row>
     <row r="200" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A200" s="25">
+      <c r="A200" s="31">
         <v>60</v>
       </c>
       <c r="B200" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C200" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C200" s="29" t="s">
+      <c r="D200" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E200" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F200" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D200" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="E200" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="G200" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="H200" s="29" t="s">
+      <c r="G200" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H200" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I200" s="8"/>
@@ -9127,16 +9124,16 @@
       <c r="AB200" s="8"/>
     </row>
     <row r="201" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
       <c r="F201" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G201" s="26"/>
-      <c r="H201" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
@@ -9159,16 +9156,16 @@
       <c r="AB201" s="8"/>
     </row>
     <row r="202" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
+      <c r="A202" s="29"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29"/>
       <c r="F202" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
+        <v>301</v>
+      </c>
+      <c r="G202" s="29"/>
+      <c r="H202" s="29"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
@@ -9191,28 +9188,28 @@
       <c r="AB202" s="8"/>
     </row>
     <row r="203" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A203" s="25">
+      <c r="A203" s="31">
         <v>61</v>
       </c>
       <c r="B203" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C203" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C203" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="D203" s="29" t="s">
+      <c r="D203" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E203" s="29" t="s">
-        <v>238</v>
+      <c r="E203" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G203" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="H203" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G203" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H203" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="8"/>
@@ -9237,16 +9234,16 @@
       <c r="AB203" s="8"/>
     </row>
     <row r="204" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
+      <c r="A204" s="33"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
       <c r="F204" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G204" s="26"/>
-      <c r="H204" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
@@ -9269,16 +9266,16 @@
       <c r="AB204" s="8"/>
     </row>
     <row r="205" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
+      <c r="A205" s="29"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="29"/>
       <c r="F205" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
+        <v>301</v>
+      </c>
+      <c r="G205" s="29"/>
+      <c r="H205" s="29"/>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
@@ -9301,16 +9298,16 @@
       <c r="AB205" s="8"/>
     </row>
     <row r="206" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="31"/>
-      <c r="F206" s="31"/>
-      <c r="G206" s="31"/>
-      <c r="H206" s="32"/>
+      <c r="A206" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="27"/>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
@@ -9337,22 +9334,22 @@
         <v>62</v>
       </c>
       <c r="B207" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C207" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>310</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E207" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F207" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F207" s="11" t="s">
+      <c r="G207" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="G207" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>15</v>
@@ -9379,28 +9376,28 @@
       <c r="AB207" s="8"/>
     </row>
     <row r="208" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A208" s="25">
+      <c r="A208" s="31">
         <v>63</v>
       </c>
       <c r="B208" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D208" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F208" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C208" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="D208" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E208" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F208" s="11" t="s">
+      <c r="G208" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="G208" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H208" s="29" t="s">
+      <c r="H208" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I208" s="8"/>
@@ -9425,16 +9422,16 @@
       <c r="AB208" s="8"/>
     </row>
     <row r="209" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
+      <c r="A209" s="33"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
       <c r="F209" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G209" s="26"/>
-      <c r="H209" s="26"/>
+        <v>316</v>
+      </c>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
@@ -9457,16 +9454,16 @@
       <c r="AB209" s="8"/>
     </row>
     <row r="210" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
+      <c r="A210" s="29"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
       <c r="F210" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
+        <v>317</v>
+      </c>
+      <c r="G210" s="29"/>
+      <c r="H210" s="29"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
@@ -9489,28 +9486,28 @@
       <c r="AB210" s="8"/>
     </row>
     <row r="211" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A211" s="25">
+      <c r="A211" s="31">
         <v>64</v>
       </c>
       <c r="B211" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D211" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F211" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G211" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C211" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="D211" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F211" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G211" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H211" s="29" t="s">
+      <c r="H211" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I211" s="8"/>
@@ -9535,16 +9532,16 @@
       <c r="AB211" s="8"/>
     </row>
     <row r="212" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
       <c r="F212" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G212" s="26"/>
-      <c r="H212" s="26"/>
+        <v>320</v>
+      </c>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
@@ -9567,16 +9564,16 @@
       <c r="AB212" s="8"/>
     </row>
     <row r="213" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
       <c r="F213" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
+        <v>321</v>
+      </c>
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
@@ -9599,28 +9596,28 @@
       <c r="AB213" s="8"/>
     </row>
     <row r="214" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A214" s="25">
+      <c r="A214" s="31">
         <v>65</v>
       </c>
       <c r="B214" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C214" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C214" s="29" t="s">
+      <c r="D214" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G214" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="D214" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G214" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="H214" s="29" t="s">
+      <c r="H214" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I214" s="8"/>
@@ -9645,16 +9642,16 @@
       <c r="AB214" s="8"/>
     </row>
     <row r="215" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
       <c r="F215" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G215" s="26"/>
-      <c r="H215" s="26"/>
+        <v>320</v>
+      </c>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
@@ -9677,16 +9674,16 @@
       <c r="AB215" s="8"/>
     </row>
     <row r="216" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="27"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
+      <c r="A216" s="29"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="29"/>
       <c r="F216" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27"/>
+        <v>325</v>
+      </c>
+      <c r="G216" s="29"/>
+      <c r="H216" s="29"/>
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
@@ -9709,28 +9706,28 @@
       <c r="AB216" s="8"/>
     </row>
     <row r="217" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A217" s="25">
+      <c r="A217" s="31">
         <v>66</v>
       </c>
-      <c r="B217" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="C217" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="D217" s="29" t="s">
+      <c r="B217" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D217" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E217" s="29" t="s">
-        <v>311</v>
+      <c r="E217" s="30" t="s">
+        <v>310</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G217" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="H217" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="G217" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="H217" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I217" s="8"/>
@@ -9755,16 +9752,16 @@
       <c r="AB217" s="8"/>
     </row>
     <row r="218" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
       <c r="F218" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G218" s="26"/>
-      <c r="H218" s="26"/>
+        <v>320</v>
+      </c>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
@@ -9787,16 +9784,16 @@
       <c r="AB218" s="8"/>
     </row>
     <row r="219" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
+      <c r="A219" s="33"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
       <c r="F219" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G219" s="26"/>
-      <c r="H219" s="26"/>
+        <v>325</v>
+      </c>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
@@ -9819,16 +9816,16 @@
       <c r="AB219" s="8"/>
     </row>
     <row r="220" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
+      <c r="A220" s="29"/>
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
       <c r="F220" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
+        <v>327</v>
+      </c>
+      <c r="G220" s="29"/>
+      <c r="H220" s="29"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
@@ -9851,16 +9848,16 @@
       <c r="AB220" s="8"/>
     </row>
     <row r="221" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="31"/>
-      <c r="H221" s="32"/>
+      <c r="A221" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="26"/>
+      <c r="G221" s="26"/>
+      <c r="H221" s="27"/>
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
@@ -9883,28 +9880,28 @@
       <c r="AB221" s="8"/>
     </row>
     <row r="222" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A222" s="25">
+      <c r="A222" s="31">
         <v>67</v>
       </c>
       <c r="B222" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C222" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C222" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D222" s="29" t="s">
+      <c r="D222" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E222" s="29" t="s">
-        <v>238</v>
+      <c r="E222" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="F222" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G222" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="G222" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H222" s="29"/>
+      <c r="H222" s="30"/>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
@@ -9927,16 +9924,16 @@
       <c r="AB222" s="8"/>
     </row>
     <row r="223" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
+      <c r="A223" s="33"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
       <c r="F223" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G223" s="26"/>
-      <c r="H223" s="26"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
@@ -9959,16 +9956,16 @@
       <c r="AB223" s="8"/>
     </row>
     <row r="224" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="27"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="29"/>
       <c r="F224" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
+        <v>216</v>
+      </c>
+      <c r="G224" s="29"/>
+      <c r="H224" s="29"/>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
@@ -9991,28 +9988,28 @@
       <c r="AB224" s="8"/>
     </row>
     <row r="225" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A225" s="25">
+      <c r="A225" s="31">
         <v>68</v>
       </c>
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C225" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="D225" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F225" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D225" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="G225" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="H225" s="29" t="s">
+      <c r="G225" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H225" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I225" s="8"/>
@@ -10037,16 +10034,16 @@
       <c r="AB225" s="8"/>
     </row>
     <row r="226" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
+      <c r="A226" s="33"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
       <c r="F226" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G226" s="26"/>
-      <c r="H226" s="26"/>
+        <v>334</v>
+      </c>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -10069,16 +10066,16 @@
       <c r="AB226" s="8"/>
     </row>
     <row r="227" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
+      <c r="A227" s="33"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
       <c r="F227" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G227" s="26"/>
-      <c r="H227" s="26"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
@@ -10101,16 +10098,16 @@
       <c r="AB227" s="8"/>
     </row>
     <row r="228" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
       <c r="F228" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
+        <v>317</v>
+      </c>
+      <c r="G228" s="29"/>
+      <c r="H228" s="29"/>
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
@@ -10133,28 +10130,28 @@
       <c r="AB228" s="8"/>
     </row>
     <row r="229" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A229" s="25">
+      <c r="A229" s="31">
         <v>69</v>
       </c>
       <c r="B229" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D229" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E229" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G229" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="C229" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D229" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E229" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="G229" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H229" s="29" t="s">
+      <c r="H229" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I229" s="8"/>
@@ -10179,16 +10176,16 @@
       <c r="AB229" s="8"/>
     </row>
     <row r="230" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
+      <c r="A230" s="33"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
       <c r="F230" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G230" s="26"/>
-      <c r="H230" s="26"/>
+        <v>161</v>
+      </c>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
@@ -10211,16 +10208,16 @@
       <c r="AB230" s="8"/>
     </row>
     <row r="231" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
+      <c r="A231" s="33"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
       <c r="F231" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G231" s="26"/>
-      <c r="H231" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="G231" s="33"/>
+      <c r="H231" s="33"/>
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
@@ -10243,16 +10240,16 @@
       <c r="AB231" s="8"/>
     </row>
     <row r="232" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
+      <c r="A232" s="33"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
       <c r="F232" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G232" s="26"/>
-      <c r="H232" s="26"/>
+        <v>173</v>
+      </c>
+      <c r="G232" s="33"/>
+      <c r="H232" s="33"/>
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
@@ -10275,16 +10272,16 @@
       <c r="AB232" s="8"/>
     </row>
     <row r="233" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
+      <c r="A233" s="33"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
       <c r="F233" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G233" s="26"/>
-      <c r="H233" s="26"/>
+        <v>174</v>
+      </c>
+      <c r="G233" s="33"/>
+      <c r="H233" s="33"/>
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
@@ -10307,16 +10304,16 @@
       <c r="AB233" s="8"/>
     </row>
     <row r="234" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27"/>
-      <c r="C234" s="27"/>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27"/>
+      <c r="A234" s="29"/>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29"/>
       <c r="F234" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="G234" s="29"/>
+      <c r="H234" s="29"/>
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
@@ -10339,28 +10336,28 @@
       <c r="AB234" s="8"/>
     </row>
     <row r="235" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A235" s="25">
+      <c r="A235" s="31">
         <v>70</v>
       </c>
       <c r="B235" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C235" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C235" s="29" t="s">
+      <c r="D235" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G235" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="D235" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E235" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="G235" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="H235" s="29"/>
+      <c r="H235" s="30"/>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
@@ -10383,16 +10380,16 @@
       <c r="AB235" s="8"/>
     </row>
     <row r="236" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
+      <c r="A236" s="33"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
       <c r="F236" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="G236" s="26"/>
-      <c r="H236" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="G236" s="33"/>
+      <c r="H236" s="33"/>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -10415,16 +10412,16 @@
       <c r="AB236" s="8"/>
     </row>
     <row r="237" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
+      <c r="A237" s="33"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
       <c r="F237" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="G237" s="26"/>
-      <c r="H237" s="26"/>
+        <v>341</v>
+      </c>
+      <c r="G237" s="33"/>
+      <c r="H237" s="33"/>
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
@@ -10447,16 +10444,16 @@
       <c r="AB237" s="8"/>
     </row>
     <row r="238" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="27"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
+      <c r="A238" s="29"/>
+      <c r="B238" s="29"/>
+      <c r="C238" s="29"/>
+      <c r="D238" s="29"/>
+      <c r="E238" s="29"/>
       <c r="F238" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
+        <v>317</v>
+      </c>
+      <c r="G238" s="29"/>
+      <c r="H238" s="29"/>
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
@@ -10479,28 +10476,28 @@
       <c r="AB238" s="8"/>
     </row>
     <row r="239" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A239" s="25">
+      <c r="A239" s="31">
         <v>71</v>
       </c>
       <c r="B239" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C239" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="C239" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="D239" s="42" t="s">
+      <c r="D239" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E239" s="29" t="s">
-        <v>238</v>
+      <c r="E239" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G239" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="H239" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G239" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="H239" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I239" s="8"/>
@@ -10525,16 +10522,16 @@
       <c r="AB239" s="8"/>
     </row>
     <row r="240" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
+      <c r="A240" s="33"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
       <c r="F240" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G240" s="26"/>
-      <c r="H240" s="26"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="33"/>
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
       <c r="K240" s="8"/>
@@ -10557,16 +10554,16 @@
       <c r="AB240" s="8"/>
     </row>
     <row r="241" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
-      <c r="C241" s="27"/>
-      <c r="D241" s="27"/>
-      <c r="E241" s="27"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+      <c r="E241" s="29"/>
       <c r="F241" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
+        <v>325</v>
+      </c>
+      <c r="G241" s="29"/>
+      <c r="H241" s="29"/>
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
       <c r="K241" s="8"/>
@@ -10589,28 +10586,28 @@
       <c r="AB241" s="8"/>
     </row>
     <row r="242" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A242" s="25">
+      <c r="A242" s="31">
         <v>72</v>
       </c>
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C242" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="D242" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G242" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D242" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E242" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G242" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="H242" s="29" t="s">
+      <c r="H242" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I242" s="8"/>
@@ -10635,16 +10632,16 @@
       <c r="AB242" s="8"/>
     </row>
     <row r="243" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
+      <c r="A243" s="33"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
       <c r="F243" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G243" s="26"/>
-      <c r="H243" s="26"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="33"/>
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
       <c r="K243" s="8"/>
@@ -10667,16 +10664,16 @@
       <c r="AB243" s="8"/>
     </row>
     <row r="244" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
+      <c r="A244" s="33"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
       <c r="F244" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G244" s="26"/>
-      <c r="H244" s="26"/>
+        <v>325</v>
+      </c>
+      <c r="G244" s="33"/>
+      <c r="H244" s="33"/>
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
       <c r="K244" s="8"/>
@@ -10699,16 +10696,16 @@
       <c r="AB244" s="8"/>
     </row>
     <row r="245" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A245" s="27"/>
-      <c r="B245" s="27"/>
-      <c r="C245" s="27"/>
-      <c r="D245" s="27"/>
-      <c r="E245" s="27"/>
+      <c r="A245" s="29"/>
+      <c r="B245" s="29"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="29"/>
       <c r="F245" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
+        <v>327</v>
+      </c>
+      <c r="G245" s="29"/>
+      <c r="H245" s="29"/>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
       <c r="K245" s="8"/>
@@ -10731,16 +10728,16 @@
       <c r="AB245" s="8"/>
     </row>
     <row r="246" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
-      <c r="D246" s="31"/>
-      <c r="E246" s="31"/>
-      <c r="F246" s="31"/>
-      <c r="G246" s="31"/>
-      <c r="H246" s="32"/>
+      <c r="A246" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B246" s="26"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="27"/>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
       <c r="K246" s="8"/>
@@ -10763,28 +10760,28 @@
       <c r="AB246" s="8"/>
     </row>
     <row r="247" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="25">
+      <c r="A247" s="31">
         <v>73</v>
       </c>
       <c r="B247" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C247" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C247" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="D247" s="29" t="s">
+      <c r="D247" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E247" s="29" t="s">
+      <c r="E247" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G247" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="H247" s="29" t="s">
+      <c r="G247" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="H247" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I247" s="8"/>
@@ -10809,16 +10806,16 @@
       <c r="AB247" s="8"/>
     </row>
     <row r="248" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="27"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="27"/>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
+      <c r="A248" s="29"/>
+      <c r="B248" s="29"/>
+      <c r="C248" s="29"/>
+      <c r="D248" s="29"/>
+      <c r="E248" s="29"/>
       <c r="F248" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
+        <v>350</v>
+      </c>
+      <c r="G248" s="29"/>
+      <c r="H248" s="29"/>
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
       <c r="K248" s="8"/>
@@ -10845,22 +10842,22 @@
         <v>74</v>
       </c>
       <c r="B249" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C249" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="D249" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E249" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F249" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F249" s="11" t="s">
+      <c r="G249" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="G249" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="H249" s="13" t="s">
         <v>15</v>
@@ -10891,22 +10888,22 @@
         <v>75</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D250" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F250" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G250" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="G250" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="H250" s="13" t="s">
         <v>15</v>
@@ -10937,22 +10934,22 @@
         <v>76</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D251" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F251" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G251" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="G251" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="H251" s="13" t="s">
         <v>15</v>
@@ -10983,22 +10980,22 @@
         <v>77</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D252" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F252" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G252" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="G252" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="H252" s="13" t="s">
         <v>15</v>
@@ -11025,16 +11022,16 @@
       <c r="AB252" s="8"/>
     </row>
     <row r="253" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A253" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
-      <c r="D253" s="31"/>
-      <c r="E253" s="31"/>
-      <c r="F253" s="31"/>
-      <c r="G253" s="31"/>
-      <c r="H253" s="32"/>
+      <c r="A253" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+      <c r="F253" s="26"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="27"/>
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
       <c r="K253" s="8"/>
@@ -11057,28 +11054,28 @@
       <c r="AB253" s="8"/>
     </row>
     <row r="254" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A254" s="25">
+      <c r="A254" s="31">
         <v>78</v>
       </c>
-      <c r="B254" s="44" t="s">
+      <c r="B254" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C254" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C254" s="29" t="s">
+      <c r="D254" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F254" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D254" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E254" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F254" s="11" t="s">
+      <c r="G254" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="G254" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="H254" s="29" t="s">
+      <c r="H254" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I254" s="8"/>
@@ -11103,16 +11100,16 @@
       <c r="AB254" s="8"/>
     </row>
     <row r="255" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
-      <c r="C255" s="27"/>
-      <c r="D255" s="27"/>
-      <c r="E255" s="27"/>
+      <c r="A255" s="29"/>
+      <c r="B255" s="29"/>
+      <c r="C255" s="29"/>
+      <c r="D255" s="29"/>
+      <c r="E255" s="29"/>
       <c r="F255" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G255" s="27"/>
-      <c r="H255" s="27"/>
+        <v>370</v>
+      </c>
+      <c r="G255" s="29"/>
+      <c r="H255" s="29"/>
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8"/>
@@ -32136,247 +32133,176 @@
     </row>
   </sheetData>
   <mergeCells count="435">
-    <mergeCell ref="A246:H246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="E247:E248"/>
-    <mergeCell ref="A253:H253"/>
-    <mergeCell ref="G247:G248"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="G254:G255"/>
-    <mergeCell ref="H254:H255"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="C235:C238"/>
-    <mergeCell ref="D235:D238"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="G235:G238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="G242:G245"/>
-    <mergeCell ref="H242:H245"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="D225:D228"/>
-    <mergeCell ref="E225:E228"/>
-    <mergeCell ref="G225:G228"/>
-    <mergeCell ref="H225:H228"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="B229:B234"/>
-    <mergeCell ref="C229:C234"/>
-    <mergeCell ref="D229:D234"/>
-    <mergeCell ref="E229:E234"/>
-    <mergeCell ref="G229:G234"/>
-    <mergeCell ref="H229:H234"/>
-    <mergeCell ref="A229:A234"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="E222:E224"/>
-    <mergeCell ref="G222:G224"/>
-    <mergeCell ref="H222:H224"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="E214:E216"/>
-    <mergeCell ref="G214:G216"/>
-    <mergeCell ref="H214:H216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="E217:E220"/>
-    <mergeCell ref="G217:G220"/>
-    <mergeCell ref="H217:H220"/>
-    <mergeCell ref="G211:G213"/>
-    <mergeCell ref="H211:H213"/>
-    <mergeCell ref="G208:G210"/>
-    <mergeCell ref="H208:H210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="E211:E213"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="G203:G205"/>
-    <mergeCell ref="H203:H205"/>
-    <mergeCell ref="A206:H206"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="H197:H199"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="G200:G202"/>
-    <mergeCell ref="H200:H202"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="G167:G169"/>
-    <mergeCell ref="H167:H169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="G170:G172"/>
-    <mergeCell ref="H170:H172"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="A163:H163"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="C185:C190"/>
-    <mergeCell ref="D185:D190"/>
-    <mergeCell ref="E185:E190"/>
-    <mergeCell ref="G185:G190"/>
-    <mergeCell ref="H185:H190"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="C191:C196"/>
-    <mergeCell ref="D191:D196"/>
-    <mergeCell ref="E191:E196"/>
-    <mergeCell ref="G191:G196"/>
-    <mergeCell ref="H191:H196"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="E177:E180"/>
-    <mergeCell ref="G177:G180"/>
-    <mergeCell ref="H177:H180"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="E181:E184"/>
-    <mergeCell ref="G181:G184"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="G173:G175"/>
-    <mergeCell ref="H173:H175"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="A151:H151"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="H153:H155"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="G140:G142"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="H140:H142"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="H136:H139"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="H101:H105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="C110:C115"/>
+    <mergeCell ref="D110:D115"/>
+    <mergeCell ref="E110:E115"/>
+    <mergeCell ref="G110:G115"/>
+    <mergeCell ref="H110:H115"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="E61:E64"/>
     <mergeCell ref="G61:G64"/>
@@ -32401,176 +32327,247 @@
     <mergeCell ref="D119:D121"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="G119:G121"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="C110:C115"/>
-    <mergeCell ref="D110:D115"/>
-    <mergeCell ref="E110:E115"/>
-    <mergeCell ref="G110:G115"/>
-    <mergeCell ref="H110:H115"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="H101:H105"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="G140:G142"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="A151:H151"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="E177:E180"/>
+    <mergeCell ref="G177:G180"/>
+    <mergeCell ref="H177:H180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="G181:G184"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="G173:G175"/>
+    <mergeCell ref="H173:H175"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="B185:B190"/>
+    <mergeCell ref="C185:C190"/>
+    <mergeCell ref="D185:D190"/>
+    <mergeCell ref="E185:E190"/>
+    <mergeCell ref="G185:G190"/>
+    <mergeCell ref="H185:H190"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="C191:C196"/>
+    <mergeCell ref="D191:D196"/>
+    <mergeCell ref="E191:E196"/>
+    <mergeCell ref="G191:G196"/>
+    <mergeCell ref="H191:H196"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="A163:H163"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="G167:G169"/>
+    <mergeCell ref="H167:H169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="G170:G172"/>
+    <mergeCell ref="H170:H172"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="H197:H199"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="G200:G202"/>
+    <mergeCell ref="H200:H202"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="G203:G205"/>
+    <mergeCell ref="H203:H205"/>
+    <mergeCell ref="A206:H206"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="G211:G213"/>
+    <mergeCell ref="H211:H213"/>
+    <mergeCell ref="G208:G210"/>
+    <mergeCell ref="H208:H210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="E211:E213"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="E214:E216"/>
+    <mergeCell ref="G214:G216"/>
+    <mergeCell ref="H214:H216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="E217:E220"/>
+    <mergeCell ref="G217:G220"/>
+    <mergeCell ref="H217:H220"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="E222:E224"/>
+    <mergeCell ref="G222:G224"/>
+    <mergeCell ref="H222:H224"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="D225:D228"/>
+    <mergeCell ref="E225:E228"/>
+    <mergeCell ref="G225:G228"/>
+    <mergeCell ref="H225:H228"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="B229:B234"/>
+    <mergeCell ref="C229:C234"/>
+    <mergeCell ref="D229:D234"/>
+    <mergeCell ref="E229:E234"/>
+    <mergeCell ref="G229:G234"/>
+    <mergeCell ref="H229:H234"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="D235:D238"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="G235:G238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="G242:G245"/>
+    <mergeCell ref="H242:H245"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="A246:H246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="A253:H253"/>
+    <mergeCell ref="G247:G248"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="G254:G255"/>
+    <mergeCell ref="H254:H255"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
